--- a/Src/Results_insertion/output_insertion_high_[2, 0]_0.xlsx
+++ b/Src/Results_insertion/output_insertion_high_[2, 0]_0.xlsx
@@ -789,7 +789,7 @@
         <v>4</v>
       </c>
       <c r="O7" t="n">
-        <v>0</v>
+        <v>0.01567292213439941</v>
       </c>
     </row>
     <row r="8">
@@ -836,7 +836,7 @@
         <v>5</v>
       </c>
       <c r="O8" t="n">
-        <v>0</v>
+        <v>0.001512765884399414</v>
       </c>
     </row>
     <row r="9">
@@ -930,7 +930,7 @@
         <v>6</v>
       </c>
       <c r="O10" t="n">
-        <v>0.006509304046630859</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11">
@@ -977,7 +977,7 @@
         <v>8</v>
       </c>
       <c r="O11" t="n">
-        <v>0.02385163307189941</v>
+        <v>0.02133274078369141</v>
       </c>
     </row>
     <row r="12">
@@ -1024,7 +1024,7 @@
         <v>7</v>
       </c>
       <c r="O12" t="n">
-        <v>0</v>
+        <v>0.02607297897338867</v>
       </c>
     </row>
     <row r="13">
@@ -1071,7 +1071,7 @@
         <v>7</v>
       </c>
       <c r="O13" t="n">
-        <v>0.004643678665161133</v>
+        <v>0.01903104782104492</v>
       </c>
     </row>
     <row r="14">
@@ -1118,7 +1118,7 @@
         <v>7</v>
       </c>
       <c r="O14" t="n">
-        <v>0.2345430850982666</v>
+        <v>0.3071813583374023</v>
       </c>
     </row>
     <row r="15">
@@ -1165,7 +1165,7 @@
         <v>8</v>
       </c>
       <c r="O15" t="n">
-        <v>0.0009932518005371094</v>
+        <v>0</v>
       </c>
     </row>
     <row r="16">
@@ -1212,7 +1212,7 @@
         <v>9</v>
       </c>
       <c r="O16" t="n">
-        <v>0.0102076530456543</v>
+        <v>0.003284215927124023</v>
       </c>
     </row>
     <row r="17">
@@ -1259,7 +1259,7 @@
         <v>10</v>
       </c>
       <c r="O17" t="n">
-        <v>0.001967430114746094</v>
+        <v>0</v>
       </c>
     </row>
     <row r="18">
@@ -1306,7 +1306,7 @@
         <v>11</v>
       </c>
       <c r="O18" t="n">
-        <v>0.01728653907775879</v>
+        <v>0</v>
       </c>
     </row>
     <row r="19">
@@ -1400,7 +1400,7 @@
         <v>11</v>
       </c>
       <c r="O20" t="n">
-        <v>0</v>
+        <v>0.001423835754394531</v>
       </c>
     </row>
     <row r="21">
@@ -1447,7 +1447,7 @@
         <v>11</v>
       </c>
       <c r="O21" t="n">
-        <v>0</v>
+        <v>0.002333164215087891</v>
       </c>
     </row>
     <row r="22">
@@ -1494,7 +1494,7 @@
         <v>9</v>
       </c>
       <c r="O22" t="n">
-        <v>0.0351107120513916</v>
+        <v>0.01639580726623535</v>
       </c>
     </row>
     <row r="23">
@@ -1541,7 +1541,7 @@
         <v>10</v>
       </c>
       <c r="O23" t="n">
-        <v>0.0009989738464355469</v>
+        <v>0</v>
       </c>
     </row>
     <row r="24">
@@ -1635,7 +1635,7 @@
         <v>11</v>
       </c>
       <c r="O25" t="n">
-        <v>0.100255012512207</v>
+        <v>0.04963326454162598</v>
       </c>
     </row>
     <row r="26">
@@ -1682,7 +1682,7 @@
         <v>11</v>
       </c>
       <c r="O26" t="n">
-        <v>1.787338256835938</v>
+        <v>2.335688352584839</v>
       </c>
     </row>
     <row r="27">
@@ -1776,7 +1776,7 @@
         <v>10</v>
       </c>
       <c r="O28" t="n">
-        <v>0.0184783935546875</v>
+        <v>0.01984119415283203</v>
       </c>
     </row>
     <row r="29">
@@ -1870,7 +1870,7 @@
         <v>12</v>
       </c>
       <c r="O30" t="n">
-        <v>0.007861137390136719</v>
+        <v>0.001100778579711914</v>
       </c>
     </row>
     <row r="31">
@@ -1917,7 +1917,7 @@
         <v>13</v>
       </c>
       <c r="O31" t="n">
-        <v>0</v>
+        <v>0.006756782531738281</v>
       </c>
     </row>
     <row r="32">
@@ -1964,7 +1964,7 @@
         <v>14</v>
       </c>
       <c r="O32" t="n">
-        <v>0</v>
+        <v>0.0005242824554443359</v>
       </c>
     </row>
     <row r="33">
@@ -2011,7 +2011,7 @@
         <v>13</v>
       </c>
       <c r="O33" t="n">
-        <v>0</v>
+        <v>0.01284980773925781</v>
       </c>
     </row>
     <row r="34">
@@ -2058,7 +2058,7 @@
         <v>15</v>
       </c>
       <c r="O34" t="n">
-        <v>0.1605632305145264</v>
+        <v>0.1166512966156006</v>
       </c>
     </row>
     <row r="35">
@@ -2105,7 +2105,7 @@
         <v>15</v>
       </c>
       <c r="O35" t="n">
-        <v>0.06220769882202148</v>
+        <v>0.06656217575073242</v>
       </c>
     </row>
     <row r="36">
@@ -2199,7 +2199,7 @@
         <v>16</v>
       </c>
       <c r="O37" t="n">
-        <v>0.1294796466827393</v>
+        <v>0.124117374420166</v>
       </c>
     </row>
     <row r="38">
@@ -2246,7 +2246,7 @@
         <v>16</v>
       </c>
       <c r="O38" t="n">
-        <v>0.07252979278564453</v>
+        <v>0.07082605361938477</v>
       </c>
     </row>
     <row r="39">
@@ -2293,7 +2293,7 @@
         <v>15</v>
       </c>
       <c r="O39" t="n">
-        <v>0.0443882942199707</v>
+        <v>0.05001258850097656</v>
       </c>
     </row>
     <row r="40">
@@ -2340,7 +2340,7 @@
         <v>16</v>
       </c>
       <c r="O40" t="n">
-        <v>0</v>
+        <v>0.001550436019897461</v>
       </c>
     </row>
     <row r="41">
@@ -2387,7 +2387,7 @@
         <v>15</v>
       </c>
       <c r="O41" t="n">
-        <v>0.04362177848815918</v>
+        <v>0.04971671104431152</v>
       </c>
     </row>
     <row r="42">
@@ -2434,7 +2434,7 @@
         <v>16</v>
       </c>
       <c r="O42" t="n">
-        <v>0.01652956008911133</v>
+        <v>0.01993155479431152</v>
       </c>
     </row>
     <row r="43">
@@ -2481,7 +2481,7 @@
         <v>16</v>
       </c>
       <c r="O43" t="n">
-        <v>0.05109095573425293</v>
+        <v>0.06643915176391602</v>
       </c>
     </row>
     <row r="44">
@@ -2528,7 +2528,7 @@
         <v>17</v>
       </c>
       <c r="O44" t="n">
-        <v>0.002000331878662109</v>
+        <v>0</v>
       </c>
     </row>
     <row r="45">
@@ -2622,7 +2622,7 @@
         <v>15</v>
       </c>
       <c r="O46" t="n">
-        <v>0.04584574699401855</v>
+        <v>0.05138611793518066</v>
       </c>
     </row>
     <row r="47">
@@ -2669,7 +2669,7 @@
         <v>15</v>
       </c>
       <c r="O47" t="n">
-        <v>0.03535032272338867</v>
+        <v>0.04651403427124023</v>
       </c>
     </row>
     <row r="48">
@@ -2716,7 +2716,7 @@
         <v>15</v>
       </c>
       <c r="O48" t="n">
-        <v>0.03135991096496582</v>
+        <v>0.0432884693145752</v>
       </c>
     </row>
     <row r="49">
@@ -2763,7 +2763,7 @@
         <v>15</v>
       </c>
       <c r="O49" t="n">
-        <v>0.04394316673278809</v>
+        <v>0.04978203773498535</v>
       </c>
     </row>
     <row r="50">
@@ -2857,7 +2857,7 @@
         <v>8</v>
       </c>
       <c r="O51" t="n">
-        <v>0.01005983352661133</v>
+        <v>0.01639413833618164</v>
       </c>
     </row>
     <row r="52">
@@ -2904,7 +2904,7 @@
         <v>9</v>
       </c>
       <c r="O52" t="n">
-        <v>0</v>
+        <v>0.001251220703125</v>
       </c>
     </row>
     <row r="53">
@@ -2951,7 +2951,7 @@
         <v>9</v>
       </c>
       <c r="O53" t="n">
-        <v>0.02813720703125</v>
+        <v>0.01732349395751953</v>
       </c>
     </row>
     <row r="54">
@@ -2998,7 +2998,7 @@
         <v>9</v>
       </c>
       <c r="O54" t="n">
-        <v>0.01464223861694336</v>
+        <v>0.01561999320983887</v>
       </c>
     </row>
     <row r="55">
@@ -3045,7 +3045,7 @@
         <v>10</v>
       </c>
       <c r="O55" t="n">
-        <v>0.001273155212402344</v>
+        <v>0</v>
       </c>
     </row>
     <row r="56">
@@ -3139,7 +3139,7 @@
         <v>9</v>
       </c>
       <c r="O57" t="n">
-        <v>0</v>
+        <v>0.003082990646362305</v>
       </c>
     </row>
     <row r="58">
@@ -3186,7 +3186,7 @@
         <v>9</v>
       </c>
       <c r="O58" t="n">
-        <v>0.002332687377929688</v>
+        <v>0.03150129318237305</v>
       </c>
     </row>
     <row r="59">
@@ -3233,7 +3233,7 @@
         <v>9</v>
       </c>
       <c r="O59" t="n">
-        <v>0.005598068237304688</v>
+        <v>0.005504131317138672</v>
       </c>
     </row>
     <row r="60">
@@ -3280,7 +3280,7 @@
         <v>10</v>
       </c>
       <c r="O60" t="n">
-        <v>0.0019378662109375</v>
+        <v>0</v>
       </c>
     </row>
     <row r="61">
@@ -3374,7 +3374,7 @@
         <v>12</v>
       </c>
       <c r="O62" t="n">
-        <v>0</v>
+        <v>0.008042573928833008</v>
       </c>
     </row>
     <row r="63">
@@ -3421,7 +3421,7 @@
         <v>10</v>
       </c>
       <c r="O63" t="n">
-        <v>0.03176784515380859</v>
+        <v>0.007013082504272461</v>
       </c>
     </row>
     <row r="64">
@@ -3468,7 +3468,7 @@
         <v>10</v>
       </c>
       <c r="O64" t="n">
-        <v>0.03766798973083496</v>
+        <v>0.01845765113830566</v>
       </c>
     </row>
     <row r="65">
@@ -3515,7 +3515,7 @@
         <v>9</v>
       </c>
       <c r="O65" t="n">
-        <v>0.7172067165374756</v>
+        <v>0.7435266971588135</v>
       </c>
     </row>
     <row r="66">
@@ -3562,7 +3562,7 @@
         <v>9</v>
       </c>
       <c r="O66" t="n">
-        <v>0.01644659042358398</v>
+        <v>0</v>
       </c>
     </row>
     <row r="67">
@@ -3609,7 +3609,7 @@
         <v>9</v>
       </c>
       <c r="O67" t="n">
-        <v>0.00610804557800293</v>
+        <v>0</v>
       </c>
     </row>
     <row r="68">
@@ -3656,7 +3656,7 @@
         <v>10</v>
       </c>
       <c r="O68" t="n">
-        <v>0.001000881195068359</v>
+        <v>0</v>
       </c>
     </row>
     <row r="69">
@@ -3797,7 +3797,7 @@
         <v>12</v>
       </c>
       <c r="O71" t="n">
-        <v>0.8337788581848145</v>
+        <v>0.5749311447143555</v>
       </c>
     </row>
     <row r="72">
@@ -3844,7 +3844,7 @@
         <v>15</v>
       </c>
       <c r="O72" t="n">
-        <v>5.242150068283081</v>
+        <v>6.437307834625244</v>
       </c>
     </row>
     <row r="73">
@@ -3891,7 +3891,7 @@
         <v>10</v>
       </c>
       <c r="O73" t="n">
-        <v>0.03195548057556152</v>
+        <v>0.02820682525634766</v>
       </c>
     </row>
     <row r="74">
@@ -4126,7 +4126,7 @@
         <v>12</v>
       </c>
       <c r="O78" t="n">
-        <v>0.01566958427429199</v>
+        <v>0.00199437141418457</v>
       </c>
     </row>
     <row r="79">
@@ -4173,7 +4173,7 @@
         <v>13</v>
       </c>
       <c r="O79" t="n">
-        <v>0</v>
+        <v>0.009083986282348633</v>
       </c>
     </row>
     <row r="80">
@@ -4220,7 +4220,7 @@
         <v>14</v>
       </c>
       <c r="O80" t="n">
-        <v>0</v>
+        <v>0.009607553482055664</v>
       </c>
     </row>
     <row r="81">
@@ -4267,7 +4267,7 @@
         <v>13</v>
       </c>
       <c r="O81" t="n">
-        <v>0.1270558834075928</v>
+        <v>0.1135287284851074</v>
       </c>
     </row>
     <row r="82">
@@ -4314,7 +4314,7 @@
         <v>14</v>
       </c>
       <c r="O82" t="n">
-        <v>0</v>
+        <v>0.007151126861572266</v>
       </c>
     </row>
     <row r="83">
@@ -4361,7 +4361,7 @@
         <v>15</v>
       </c>
       <c r="O83" t="n">
-        <v>0</v>
+        <v>0.003013372421264648</v>
       </c>
     </row>
     <row r="84">
@@ -4408,7 +4408,7 @@
         <v>15</v>
       </c>
       <c r="O84" t="n">
-        <v>3.147522211074829</v>
+        <v>4.214487314224243</v>
       </c>
     </row>
     <row r="85">
@@ -4455,7 +4455,7 @@
         <v>16</v>
       </c>
       <c r="O85" t="n">
-        <v>0</v>
+        <v>0.001000165939331055</v>
       </c>
     </row>
     <row r="86">
@@ -4502,7 +4502,7 @@
         <v>16</v>
       </c>
       <c r="O86" t="n">
-        <v>0.001603841781616211</v>
+        <v>0.006630659103393555</v>
       </c>
     </row>
     <row r="87">
@@ -4549,7 +4549,7 @@
         <v>17</v>
       </c>
       <c r="O87" t="n">
-        <v>0.01011037826538086</v>
+        <v>0</v>
       </c>
     </row>
     <row r="88">
@@ -4596,7 +4596,7 @@
         <v>18</v>
       </c>
       <c r="O88" t="n">
-        <v>0</v>
+        <v>0.003081083297729492</v>
       </c>
     </row>
     <row r="89">
@@ -4643,7 +4643,7 @@
         <v>19</v>
       </c>
       <c r="O89" t="n">
-        <v>0.0330965518951416</v>
+        <v>0.04815411567687988</v>
       </c>
     </row>
     <row r="90">
@@ -4690,7 +4690,7 @@
         <v>19</v>
       </c>
       <c r="O90" t="n">
-        <v>5.170410394668579</v>
+        <v>8.103768348693848</v>
       </c>
     </row>
     <row r="91">
@@ -4737,7 +4737,7 @@
         <v>19</v>
       </c>
       <c r="O91" t="n">
-        <v>0.05720734596252441</v>
+        <v>0.06442689895629883</v>
       </c>
     </row>
     <row r="92">
@@ -4784,7 +4784,7 @@
         <v>19</v>
       </c>
       <c r="O92" t="n">
-        <v>0.05213689804077148</v>
+        <v>0.07472062110900879</v>
       </c>
     </row>
     <row r="93">
@@ -4831,7 +4831,7 @@
         <v>19</v>
       </c>
       <c r="O93" t="n">
-        <v>0.03290581703186035</v>
+        <v>0.0462651252746582</v>
       </c>
     </row>
     <row r="94">
@@ -4878,7 +4878,7 @@
         <v>17</v>
       </c>
       <c r="O94" t="n">
-        <v>0.001014232635498047</v>
+        <v>0.002055168151855469</v>
       </c>
     </row>
     <row r="95">
@@ -4925,7 +4925,7 @@
         <v>18</v>
       </c>
       <c r="O95" t="n">
-        <v>0</v>
+        <v>0.001998186111450195</v>
       </c>
     </row>
     <row r="96">
@@ -4972,7 +4972,7 @@
         <v>20</v>
       </c>
       <c r="O96" t="n">
-        <v>0.06246376037597656</v>
+        <v>0.07336950302124023</v>
       </c>
     </row>
     <row r="97">
@@ -5019,7 +5019,7 @@
         <v>21</v>
       </c>
       <c r="O97" t="n">
-        <v>0.009619474411010742</v>
+        <v>0.006829023361206055</v>
       </c>
     </row>
     <row r="98">
@@ -5066,7 +5066,7 @@
         <v>19</v>
       </c>
       <c r="O98" t="n">
-        <v>0.01011562347412109</v>
+        <v>0.007189750671386719</v>
       </c>
     </row>
     <row r="99">
@@ -5113,7 +5113,7 @@
         <v>20</v>
       </c>
       <c r="O99" t="n">
-        <v>0.03291082382202148</v>
+        <v>0.05993318557739258</v>
       </c>
     </row>
     <row r="100">
@@ -5160,7 +5160,7 @@
         <v>20</v>
       </c>
       <c r="O100" t="n">
-        <v>0.07160353660583496</v>
+        <v>0.08552718162536621</v>
       </c>
     </row>
     <row r="101">
@@ -5207,7 +5207,7 @@
         <v>20</v>
       </c>
       <c r="O101" t="n">
-        <v>0.002857685089111328</v>
+        <v>0.007103919982910156</v>
       </c>
     </row>
     <row r="102">
@@ -5301,7 +5301,7 @@
         <v>18</v>
       </c>
       <c r="O103" t="n">
-        <v>0.04403233528137207</v>
+        <v>0.03928112983703613</v>
       </c>
     </row>
     <row r="104">
@@ -5348,7 +5348,7 @@
         <v>20</v>
       </c>
       <c r="O104" t="n">
-        <v>0.1163804531097412</v>
+        <v>0.07538104057312012</v>
       </c>
     </row>
     <row r="105">
@@ -5395,7 +5395,7 @@
         <v>20</v>
       </c>
       <c r="O105" t="n">
-        <v>0</v>
+        <v>0.002104759216308594</v>
       </c>
     </row>
     <row r="106">
@@ -5442,7 +5442,7 @@
         <v>21</v>
       </c>
       <c r="O106" t="n">
-        <v>0.01101231575012207</v>
+        <v>0.01195645332336426</v>
       </c>
     </row>
     <row r="107">
@@ -5489,7 +5489,7 @@
         <v>19</v>
       </c>
       <c r="O107" t="n">
-        <v>0.007606029510498047</v>
+        <v>0.01785564422607422</v>
       </c>
     </row>
     <row r="108">
@@ -5536,7 +5536,7 @@
         <v>19</v>
       </c>
       <c r="O108" t="n">
-        <v>0.05439972877502441</v>
+        <v>0.07224702835083008</v>
       </c>
     </row>
     <row r="109">
@@ -5583,7 +5583,7 @@
         <v>19</v>
       </c>
       <c r="O109" t="n">
-        <v>0.02578186988830566</v>
+        <v>0.02356219291687012</v>
       </c>
     </row>
     <row r="110">
@@ -5630,7 +5630,7 @@
         <v>19</v>
       </c>
       <c r="O110" t="n">
-        <v>0.06480884552001953</v>
+        <v>0.05336976051330566</v>
       </c>
     </row>
     <row r="111">
@@ -5677,7 +5677,7 @@
         <v>20</v>
       </c>
       <c r="O111" t="n">
-        <v>0</v>
+        <v>0.004682064056396484</v>
       </c>
     </row>
     <row r="112">
@@ -5724,7 +5724,7 @@
         <v>21</v>
       </c>
       <c r="O112" t="n">
-        <v>0.003157377243041992</v>
+        <v>0</v>
       </c>
     </row>
     <row r="113">
@@ -5818,7 +5818,7 @@
         <v>23</v>
       </c>
       <c r="O114" t="n">
-        <v>0.003002405166625977</v>
+        <v>0.004708051681518555</v>
       </c>
     </row>
     <row r="115">
@@ -5865,7 +5865,7 @@
         <v>20</v>
       </c>
       <c r="O115" t="n">
-        <v>0.0416100025177002</v>
+        <v>0.03999662399291992</v>
       </c>
     </row>
     <row r="116">
@@ -5912,7 +5912,7 @@
         <v>18</v>
       </c>
       <c r="O116" t="n">
-        <v>0.02275323867797852</v>
+        <v>0.06065940856933594</v>
       </c>
     </row>
     <row r="117">
@@ -5959,7 +5959,7 @@
         <v>19</v>
       </c>
       <c r="O117" t="n">
-        <v>0</v>
+        <v>0.001003265380859375</v>
       </c>
     </row>
     <row r="118">
@@ -6053,7 +6053,7 @@
         <v>8</v>
       </c>
       <c r="O119" t="n">
-        <v>0</v>
+        <v>0.001003026962280273</v>
       </c>
     </row>
     <row r="120">
@@ -6194,7 +6194,7 @@
         <v>9</v>
       </c>
       <c r="O122" t="n">
-        <v>0</v>
+        <v>0.0009982585906982422</v>
       </c>
     </row>
     <row r="123">
@@ -6288,7 +6288,7 @@
         <v>4</v>
       </c>
       <c r="O124" t="n">
-        <v>0</v>
+        <v>0.001022100448608398</v>
       </c>
     </row>
     <row r="125">
@@ -6429,7 +6429,7 @@
         <v>7</v>
       </c>
       <c r="O127" t="n">
-        <v>0</v>
+        <v>0.0009698867797851562</v>
       </c>
     </row>
     <row r="128">
@@ -6476,7 +6476,7 @@
         <v>7</v>
       </c>
       <c r="O128" t="n">
-        <v>0</v>
+        <v>0.00108790397644043</v>
       </c>
     </row>
     <row r="129">
@@ -6711,7 +6711,7 @@
         <v>7</v>
       </c>
       <c r="O133" t="n">
-        <v>0</v>
+        <v>0.00099945068359375</v>
       </c>
     </row>
     <row r="134">
@@ -6758,7 +6758,7 @@
         <v>6</v>
       </c>
       <c r="O134" t="n">
-        <v>0</v>
+        <v>0.00153803825378418</v>
       </c>
     </row>
     <row r="135">
@@ -6805,7 +6805,7 @@
         <v>7</v>
       </c>
       <c r="O135" t="n">
-        <v>0</v>
+        <v>0.002008438110351562</v>
       </c>
     </row>
     <row r="136">
@@ -6852,7 +6852,7 @@
         <v>8</v>
       </c>
       <c r="O136" t="n">
-        <v>0</v>
+        <v>0.001044511795043945</v>
       </c>
     </row>
     <row r="137">
@@ -6946,7 +6946,7 @@
         <v>9</v>
       </c>
       <c r="O138" t="n">
-        <v>0</v>
+        <v>0.005125522613525391</v>
       </c>
     </row>
     <row r="139">
@@ -6993,7 +6993,7 @@
         <v>9</v>
       </c>
       <c r="O139" t="n">
-        <v>0.006768941879272461</v>
+        <v>0.001000165939331055</v>
       </c>
     </row>
     <row r="140">
@@ -7040,7 +7040,7 @@
         <v>9</v>
       </c>
       <c r="O140" t="n">
-        <v>0.00583958625793457</v>
+        <v>0.01351141929626465</v>
       </c>
     </row>
     <row r="141">
@@ -7087,7 +7087,7 @@
         <v>10</v>
       </c>
       <c r="O141" t="n">
-        <v>0</v>
+        <v>0.002999544143676758</v>
       </c>
     </row>
     <row r="142">
@@ -7134,7 +7134,7 @@
         <v>10</v>
       </c>
       <c r="O142" t="n">
-        <v>0.004139423370361328</v>
+        <v>0</v>
       </c>
     </row>
     <row r="143">
@@ -7181,7 +7181,7 @@
         <v>7</v>
       </c>
       <c r="O143" t="n">
-        <v>0.001315593719482422</v>
+        <v>0.001908063888549805</v>
       </c>
     </row>
     <row r="144">
@@ -7322,7 +7322,7 @@
         <v>10</v>
       </c>
       <c r="O146" t="n">
-        <v>0.01050972938537598</v>
+        <v>0.003236770629882812</v>
       </c>
     </row>
     <row r="147">
@@ -7369,7 +7369,7 @@
         <v>6</v>
       </c>
       <c r="O147" t="n">
-        <v>0</v>
+        <v>0.0374910831451416</v>
       </c>
     </row>
     <row r="148">
@@ -7416,7 +7416,7 @@
         <v>6</v>
       </c>
       <c r="O148" t="n">
-        <v>0.01743817329406738</v>
+        <v>0.03570032119750977</v>
       </c>
     </row>
     <row r="149">
@@ -7463,7 +7463,7 @@
         <v>8</v>
       </c>
       <c r="O149" t="n">
-        <v>0.07493996620178223</v>
+        <v>0.1536204814910889</v>
       </c>
     </row>
     <row r="150">
@@ -7510,7 +7510,7 @@
         <v>8</v>
       </c>
       <c r="O150" t="n">
-        <v>4.113582849502563</v>
+        <v>4.650670528411865</v>
       </c>
     </row>
     <row r="151">
@@ -7557,7 +7557,7 @@
         <v>10</v>
       </c>
       <c r="O151" t="n">
-        <v>0.1638524532318115</v>
+        <v>0.35862135887146</v>
       </c>
     </row>
     <row r="152">
@@ -7651,7 +7651,7 @@
         <v>9</v>
       </c>
       <c r="O153" t="n">
-        <v>0.005124092102050781</v>
+        <v>0</v>
       </c>
     </row>
     <row r="154">
@@ -7792,7 +7792,7 @@
         <v>12</v>
       </c>
       <c r="O156" t="n">
-        <v>0</v>
+        <v>0.0009999275207519531</v>
       </c>
     </row>
     <row r="157">
@@ -7839,7 +7839,7 @@
         <v>13</v>
       </c>
       <c r="O157" t="n">
-        <v>0</v>
+        <v>0.003350496292114258</v>
       </c>
     </row>
     <row r="158">
@@ -7933,7 +7933,7 @@
         <v>13</v>
       </c>
       <c r="O159" t="n">
-        <v>0.004969358444213867</v>
+        <v>0.006999492645263672</v>
       </c>
     </row>
     <row r="160">
@@ -7980,7 +7980,7 @@
         <v>13</v>
       </c>
       <c r="O160" t="n">
-        <v>0</v>
+        <v>0.001908063888549805</v>
       </c>
     </row>
     <row r="161">
@@ -8027,7 +8027,7 @@
         <v>14</v>
       </c>
       <c r="O161" t="n">
-        <v>0</v>
+        <v>0.0008993148803710938</v>
       </c>
     </row>
     <row r="162">
@@ -8074,7 +8074,7 @@
         <v>14</v>
       </c>
       <c r="O162" t="n">
-        <v>0.01501035690307617</v>
+        <v>0.00293278694152832</v>
       </c>
     </row>
     <row r="163">
@@ -8121,7 +8121,7 @@
         <v>15</v>
       </c>
       <c r="O163" t="n">
-        <v>0.002983808517456055</v>
+        <v>0</v>
       </c>
     </row>
     <row r="164">
@@ -8168,7 +8168,7 @@
         <v>15</v>
       </c>
       <c r="O164" t="n">
-        <v>0.03598284721374512</v>
+        <v>0.03308963775634766</v>
       </c>
     </row>
     <row r="165">
@@ -8215,7 +8215,7 @@
         <v>15</v>
       </c>
       <c r="O165" t="n">
-        <v>0</v>
+        <v>0.002029657363891602</v>
       </c>
     </row>
     <row r="166">
@@ -8262,7 +8262,7 @@
         <v>15</v>
       </c>
       <c r="O166" t="n">
-        <v>0.01636195182800293</v>
+        <v>0.01582670211791992</v>
       </c>
     </row>
     <row r="167">
@@ -8356,7 +8356,7 @@
         <v>14</v>
       </c>
       <c r="O168" t="n">
-        <v>0.004025697708129883</v>
+        <v>0.02868056297302246</v>
       </c>
     </row>
     <row r="169">
@@ -8403,7 +8403,7 @@
         <v>14</v>
       </c>
       <c r="O169" t="n">
-        <v>0.03303647041320801</v>
+        <v>0.0169224739074707</v>
       </c>
     </row>
     <row r="170">
@@ -8450,7 +8450,7 @@
         <v>14</v>
       </c>
       <c r="O170" t="n">
-        <v>0.02592253684997559</v>
+        <v>0.02729916572570801</v>
       </c>
     </row>
     <row r="171">
@@ -8497,7 +8497,7 @@
         <v>14</v>
       </c>
       <c r="O171" t="n">
-        <v>0.01668381690979004</v>
+        <v>0.01534414291381836</v>
       </c>
     </row>
     <row r="172">
@@ -8544,7 +8544,7 @@
         <v>10</v>
       </c>
       <c r="O172" t="n">
-        <v>0</v>
+        <v>0.002001047134399414</v>
       </c>
     </row>
     <row r="173">
@@ -8591,7 +8591,7 @@
         <v>10</v>
       </c>
       <c r="O173" t="n">
-        <v>0.01719427108764648</v>
+        <v>0.01712250709533691</v>
       </c>
     </row>
     <row r="174">
@@ -8638,7 +8638,7 @@
         <v>9</v>
       </c>
       <c r="O174" t="n">
-        <v>0.007010221481323242</v>
+        <v>0.008299350738525391</v>
       </c>
     </row>
     <row r="175">
@@ -8732,7 +8732,7 @@
         <v>10</v>
       </c>
       <c r="O176" t="n">
-        <v>0.0009858608245849609</v>
+        <v>0</v>
       </c>
     </row>
     <row r="177">
@@ -8779,7 +8779,7 @@
         <v>4</v>
       </c>
       <c r="O177" t="n">
-        <v>0</v>
+        <v>0.00311732292175293</v>
       </c>
     </row>
   </sheetData>
